--- a/Files/Book1.xlsx
+++ b/Files/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelzurita/IdeaProjects/SDET JavaBatch15Basic/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C546020-B171-B047-AC65-8893C9763C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE06A77A-367C-2C40-87BE-995E89BF7583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38200" yWindow="3680" windowWidth="32960" windowHeight="15620" xr2:uid="{6E4CED6B-E1E2-134E-B4E4-9DB93C352904}"/>
+    <workbookView xWindow="38200" yWindow="3660" windowWidth="32960" windowHeight="15620" activeTab="1" xr2:uid="{6E4CED6B-E1E2-134E-B4E4-9DB93C352904}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -66,16 +67,48 @@
   </si>
   <si>
     <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Useraname</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>asghar@gmail.com</t>
+  </si>
+  <si>
+    <t>123SKBDSSD+_#_$</t>
+  </si>
+  <si>
+    <t>asghar@gmail</t>
+  </si>
+  <si>
+    <t>asghar@gmail.</t>
+  </si>
+  <si>
+    <t>asghargmail.com</t>
+  </si>
+  <si>
+    <t>123SKBDSSD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,13 +131,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DEF9AF-CA61-9A40-AAD9-3597E0BECFC4}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -484,4 +520,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D05D53C-F325-8849-8AF6-F88034BACD47}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{73AC4D62-426C-9644-8DC4-6E856ADF0E7B}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{145BACEF-BE99-0944-AECE-62A327A6D892}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{13AFF521-053A-8547-A4F7-0FC54414C3AD}"/>
+    <hyperlink ref="A5" r:id="rId4" display="asghar@gmail." xr:uid="{169A640C-DA94-B941-94AC-0009CF88DECB}"/>
+    <hyperlink ref="A6" r:id="rId5" display="asghar@gmail." xr:uid="{8E5C7935-5E3B-1842-A60D-73FC7DC56E59}"/>
+    <hyperlink ref="A7" r:id="rId6" display="asghar@gmail." xr:uid="{7DC27EF4-905E-8B43-8C37-B7EE5E24D888}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Files/Book1.xlsx
+++ b/Files/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelzurita/IdeaProjects/SDET JavaBatch15Basic/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE06A77A-367C-2C40-87BE-995E89BF7583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE64B70-33B1-AD41-B482-6AF98C1A8060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38200" yWindow="3660" windowWidth="32960" windowHeight="15620" activeTab="1" xr2:uid="{6E4CED6B-E1E2-134E-B4E4-9DB93C352904}"/>
+    <workbookView xWindow="82580" yWindow="4080" windowWidth="20740" windowHeight="15620" xr2:uid="{6E4CED6B-E1E2-134E-B4E4-9DB93C352904}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Alexandria</t>
   </si>
   <si>
-    <t>Useraname</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>123SKBDSSD</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DEF9AF-CA61-9A40-AAD9-3597E0BECFC4}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -526,9 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D05D53C-F325-8849-8AF6-F88034BACD47}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -538,58 +536,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
